--- a/src/test/resources/Api_data.xlsx
+++ b/src/test/resources/Api_data.xlsx
@@ -14,9 +14,9 @@
   </bookViews>
   <sheets>
     <sheet name="Postdata" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="UserLogin" sheetId="3" r:id="rId3"/>
     <sheet name="UserPostData" sheetId="4" r:id="rId7"/>
+    <sheet name="Userdata" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -487,12 +487,354 @@
   <si>
     <t>rolemap@gmail.com</t>
   </si>
+  <si>
+    <t xml:space="preserve">Testcase </t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Contactno</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Plotno</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Zipcode</t>
+  </si>
+  <si>
+    <t>Upd_fname</t>
+  </si>
+  <si>
+    <t>Upd_lastname</t>
+  </si>
+  <si>
+    <t>Upd_contactno</t>
+  </si>
+  <si>
+    <t>Upd_email</t>
+  </si>
+  <si>
+    <t>Sindhiya</t>
+  </si>
+  <si>
+    <t>Ravisankar</t>
+  </si>
+  <si>
+    <t>saaikanees0230@gmail.com</t>
+  </si>
+  <si>
+    <t>uf-9</t>
+  </si>
+  <si>
+    <t>Costiganroad</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>Saai</t>
+  </si>
+  <si>
+    <t>priyasaai0210@gmail.com</t>
+  </si>
+  <si>
+    <t>SindhiyaG</t>
+  </si>
+  <si>
+    <t>saaikanees02@gmail.com</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Missing</t>
+  </si>
+  <si>
+    <t>priya</t>
+  </si>
+  <si>
+    <t>Moor</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>u-89</t>
+  </si>
+  <si>
+    <t>sdfa</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>saaikanees03@gmail.com</t>
+  </si>
+  <si>
+    <t>test1@gmail.com</t>
+  </si>
+  <si>
+    <t>SindhiyaGL</t>
+  </si>
+  <si>
+    <t>RavisankarA</t>
+  </si>
+  <si>
+    <t>saaikanees10@gmail.com</t>
+  </si>
+  <si>
+    <t>RavisankarAR</t>
+  </si>
+  <si>
+    <t>SindhiyaGM</t>
+  </si>
+  <si>
+    <t>saaikanees11@gmail.com</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>ArumugaPriya</t>
+  </si>
+  <si>
+    <t>RavisankarAruna</t>
+  </si>
+  <si>
+    <t>saaikanees12@gmail.com</t>
+  </si>
+  <si>
+    <t>Updatevalid</t>
+  </si>
+  <si>
+    <t>Arumugapriyaa</t>
+  </si>
+  <si>
+    <t>Moorthy</t>
+  </si>
+  <si>
+    <t>U-90</t>
+  </si>
+  <si>
+    <t>Southwest</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>unit-90</t>
+  </si>
+  <si>
+    <t>ArumugaPriya1</t>
+  </si>
+  <si>
+    <t>RavisankarAruna1</t>
+  </si>
+  <si>
+    <t>saaikaneesupdate@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees14@gmail.com</t>
+  </si>
+  <si>
+    <t>ArumugaPriyaR</t>
+  </si>
+  <si>
+    <t>saaikaneesupd1@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan@gmail.com</t>
+  </si>
+  <si>
+    <t>us90</t>
+  </si>
+  <si>
+    <t>saikan2002@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan1002@gmail.com</t>
+  </si>
+  <si>
+    <t>Unit-12</t>
+  </si>
+  <si>
+    <t>saikan100@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan101@gmail.com</t>
+  </si>
+  <si>
+    <t>TestData</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>saikan102@gmail.com</t>
+  </si>
+  <si>
+    <t>Splchr Fname</t>
+  </si>
+  <si>
+    <t>Priya@!</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>priya!@gmail.com</t>
+  </si>
+  <si>
+    <t>U-9</t>
+  </si>
+  <si>
+    <t>Greenways Road</t>
+  </si>
+  <si>
+    <t>USAA</t>
+  </si>
+  <si>
+    <t>saikan104@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees15@gmail.com</t>
+  </si>
+  <si>
+    <t>Existingcontact</t>
+  </si>
+  <si>
+    <t>Kanees</t>
+  </si>
+  <si>
+    <t>dear</t>
+  </si>
+  <si>
+    <t>kanees1@gmail.com</t>
+  </si>
+  <si>
+    <t>U-23</t>
+  </si>
+  <si>
+    <t>greenlees</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>saikan105@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees65@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan106@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan107@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan108@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees66@gmail.com</t>
+  </si>
+  <si>
+    <t>UpdateInvalid</t>
+  </si>
+  <si>
+    <t>Kaeees</t>
+  </si>
+  <si>
+    <t>kanees.gmail.com</t>
+  </si>
+  <si>
+    <t>farmstead</t>
+  </si>
+  <si>
+    <t>UpdateExistingEmail</t>
+  </si>
+  <si>
+    <t>bennydayal1@gmail.com</t>
+  </si>
+  <si>
+    <t>Kaneeshka</t>
+  </si>
+  <si>
+    <t>Samik</t>
+  </si>
+  <si>
+    <t>Un-08</t>
+  </si>
+  <si>
+    <t>saaikanees67@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan109@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees68@gmail.com</t>
+  </si>
+  <si>
+    <t>kanees2@gmail.com</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>testrest@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan110@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees69@gmail.com</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>saikan112@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees70@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan114@gmail.com</t>
+  </si>
+  <si>
+    <t>saaikanees71@gmail.com</t>
+  </si>
+  <si>
+    <t>saikan115@gmail.com</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="59" x14ac:knownFonts="1">
+  <fonts count="125" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,6 +1176,381 @@
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <color rgb="FF0451A5"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color theme="10"/>
+      <u val="single"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Courier New"/>
+      <color rgb="FF0451A5"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial Narrow"/>
+      <color rgb="FF0451A5"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial Narrow"/>
+      <color rgb="FF0451A5"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Segoe UI"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <color rgb="FF000000"/>
       <family val="2"/>
     </font>
@@ -846,7 +1563,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -905,12 +1622,80 @@
         <color rgb="FF000000"/>
       </diagonal>
     </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1020,6 +1805,78 @@
       <alignment/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="58" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="60" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="61" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="62" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="64" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="65" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="67" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="69" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="71" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="72" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="73" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="74" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="78" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="79" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="81" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="83" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="85" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="87" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="89" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="91" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="93" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="94" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="96" applyFont="1" fillId="0" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="97" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="98" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="100" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="101" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="103" applyFont="1" fillId="0" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="104" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="106" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="107" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="108" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="109" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="111" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="112" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="114" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="115" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="118" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="119" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="121" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="122" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="124" applyFont="1" fillId="0" applyFill="1" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1453,98 +2310,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855F56B0-845D-4222-9C6A-8B7131F86E5D}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A19F79E-EA8E-434A-90C0-1E1ADA80410B}">
   <dimension ref="A1:B2"/>
@@ -1590,7 +2355,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1" topLeftCell="A1">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -1647,16 +2412,16 @@
       <c r="L1" t="s">
         <v>43</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="M1" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="N1" t="s">
         <v>45</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="O1" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="P1" t="s">
         <v>47</v>
       </c>
       <c r="Q1" t="s">
@@ -1741,66 +2506,66 @@
       <c r="K3" t="s">
         <v>86</v>
       </c>
-      <c r="L3" s="0">
+      <c r="L3">
         <v>8135023349</v>
       </c>
       <c r="M3" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="N3" t="s">
         <v>56</v>
       </c>
-      <c r="O3" s="0" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="P3" s="0" t="s">
+      <c r="P3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
+      <c r="A4" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" t="s">
         <v>80</v>
       </c>
       <c r="F4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="H4" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" t="s">
         <v>84</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>91</v>
       </c>
-      <c r="L4" s="0">
+      <c r="L4">
         <v>8135723369</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="N4" t="s">
         <v>56</v>
       </c>
-      <c r="O4" s="0" t="s">
+      <c r="O4" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="0" t="s">
+      <c r="P4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1826,4 +2591,286 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="E2" activeCellId="0" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="23.59765625" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="13.09765625" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="8" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="22" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" width="12.296875" customWidth="1" bestFit="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="G1" s="51" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="I1" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>211</v>
+      </c>
+      <c r="D2" s="52">
+        <v>9800123509</v>
+      </c>
+      <c r="E2" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>161</v>
+      </c>
+      <c r="G2" s="51" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="51" t="s">
+        <v>164</v>
+      </c>
+      <c r="J2" s="52">
+        <v>62345</v>
+      </c>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="51"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3">
+        <v>9809011339</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D4" s="52">
+        <v>9900113461</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="63" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H4" t="s">
+        <v>195</v>
+      </c>
+      <c r="I4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5">
+        <v>9123451234</v>
+      </c>
+      <c r="E5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" t="s">
+        <v>217</v>
+      </c>
+      <c r="G5" t="s">
+        <v>218</v>
+      </c>
+      <c r="H5" t="s">
+        <v>195</v>
+      </c>
+      <c r="I5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J5">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="52">
+        <v>9900113411</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" t="s">
+        <v>227</v>
+      </c>
+      <c r="H6" t="s">
+        <v>228</v>
+      </c>
+      <c r="I6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J6">
+        <v>15678</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="78" t="s">
+        <v>236</v>
+      </c>
+      <c r="B7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7">
+        <v>9870612345</v>
+      </c>
+      <c r="E7" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>239</v>
+      </c>
+      <c r="H7" t="s">
+        <v>228</v>
+      </c>
+      <c r="I7" t="s">
+        <v>229</v>
+      </c>
+      <c r="J7">
+        <v>12334</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="78" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D8">
+        <v>9087123401</v>
+      </c>
+      <c r="E8" s="82" t="s">
+        <v>241</v>
+      </c>
+      <c r="F8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" t="s">
+        <v>228</v>
+      </c>
+      <c r="I8" t="s">
+        <v>229</v>
+      </c>
+      <c r="J8">
+        <v>12334</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" display="kanees2@gmail.com" r:id="rId26"/>
+    <hyperlink ref="E3" display="testrest@gmail.com" r:id="rId27"/>
+    <hyperlink ref="E4" display="saaikanees71@gmail.com" r:id="rId33"/>
+    <hyperlink ref="E2" display="saikan115@gmail.com" r:id="rId34"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>